--- a/biology/Médecine/Serge_Lebovici/Serge_Lebovici.xlsx
+++ b/biology/Médecine/Serge_Lebovici/Serge_Lebovici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Lebovici, né le 10 juin 1915 à Paris 17e et mort le 12 août 2000 à Antrenas en Lozère[1],[2],[3], est un psychiatre, professeur de psychiatrie et psychanalyste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Lebovici, né le 10 juin 1915 à Paris 17e et mort le 12 août 2000 à Antrenas en Lozère est un psychiatre, professeur de psychiatrie et psychanalyste français.
 </t>
         </is>
       </c>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Serge Lebovici est né en 1915, aîné de trois enfants dans une famille juive immigrée de Roumanie. Son père Salomon Lebovici est né le 9 juin 1884 à Bârlad, en Roumanie. Il est arrêté par la Gestapo durant la Seconde Guerre mondiale et déporté par le convoi n° 36 en date du 23 septembre 1942 du camp de Drancy à Auschwitz [4]où il fut assassiné. Serge Lebovici se cache, avec sa première épouse et sa fille aînée, Marianne Lebovici, née en 1943. En 1953, il a une seconde fille, Élisabeth Lebovici, journaliste à Libération.
-La médecine
-Il commence ses études de médecine en 1933, réussit l'internat des hôpitaux en 1938. En 1946, il est nommé assistant dans le service de psychiatrie de Georges Heuyer, à l'hôpital des Enfants malades. Il s'occupe également d'adultes. En 1963, il parraine la création de l'hôpital de jour Santos-Dumont, à Paris[5]. Dans les années 1980, il fonde un service de psychopathologie de l'enfant et de l'adolescent à l'Hôpital Avicenne à Bobigny, et il enseigne au sein de l'UFR Santé, Médecine, Biologie humaine (SMBH) de l'université Paris-XIII, en PCEM1, jusqu'en 2000, l'année de sa mort. Ses derniers travaux l'amènent à développer tout particulièrement la psychopathologie du bébé, la question des interactions précoces entre le bébé et ses partenaires, et celle de la transmission psychique entre les générations.
-Psychanalyse
-Après la guerre, Serge Lebovici entreprend une analyse avec Sacha Nacht. Il devient membre de la Société psychanalytique de Paris et en devient directeur (1962-1967). Il préside l'Association psychanalytique internationale de 1973 à 1977. Avec René Diatkine et Évelyne Kestemberg, il met en place en France le « Psychodrame analytique individuel ».
-Lebovici s'intéresse particulièrement à la psychanalyse des enfants et contribue à introduire en France la pensée de Melanie Klein et de Donald Winnicott. Il évolue vers un intérêt pour les théorisations de John Bowlby.
-Au moment de la scission au sein de la Société psychanalytique de Paris, en 1953, qui conduit au départ des partisans de Jacques Lacan, il se confronte à celui-ci, dont il devient l'« ennemi personnel »[6], et à Françoise Dolto[7].
-Il fut notamment l'analyste de Romain Gary.
-Militantisme politique
-Serge Lebovici adhère au parti communiste à la fin de la Seconde Guerre mondiale. En 1949, le Parti communiste français demande à ses membres psychiatres de condamner la psychanalyse, et Serge Lebovici, confronté aux pressions, cède dans un premier temps, ce qui lui vaut les critiques de la Société psychanalytique de Paris. Il quitte pourtant le PCF peu après, au début des années cinquante, lors du procès des « Blouses blanches », qui mettait en accusation les médecins juifs russes.
-En 1958, avec Philippe Paumelle et René Diatkine, il crée l'Association de santé mentale du 13e arrondissement de Paris (ASM13), devenue Centre Alfred Binet, introduisant une visée psychanalytique dans la formation d'équipes médico-sociales «de secteur».
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Lebovici est né en 1915, aîné de trois enfants dans une famille juive immigrée de Roumanie. Son père Salomon Lebovici est né le 9 juin 1884 à Bârlad, en Roumanie. Il est arrêté par la Gestapo durant la Seconde Guerre mondiale et déporté par le convoi n° 36 en date du 23 septembre 1942 du camp de Drancy à Auschwitz où il fut assassiné. Serge Lebovici se cache, avec sa première épouse et sa fille aînée, Marianne Lebovici, née en 1943. En 1953, il a une seconde fille, Élisabeth Lebovici, journaliste à Libération.
 </t>
         </is>
       </c>
@@ -550,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Citations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'objet est investi avant que d'être perçu puis La mère est investie avant que d'être perçue et c'est ce qui la fait mère[8].</t>
+          <t>La médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence ses études de médecine en 1933, réussit l'internat des hôpitaux en 1938. En 1946, il est nommé assistant dans le service de psychiatrie de Georges Heuyer, à l'hôpital des Enfants malades. Il s'occupe également d'adultes. En 1963, il parraine la création de l'hôpital de jour Santos-Dumont, à Paris. Dans les années 1980, il fonde un service de psychopathologie de l'enfant et de l'adolescent à l'Hôpital Avicenne à Bobigny, et il enseigne au sein de l'UFR Santé, Médecine, Biologie humaine (SMBH) de l'université Paris-XIII, en PCEM1, jusqu'en 2000, l'année de sa mort. Ses derniers travaux l'amènent à développer tout particulièrement la psychopathologie du bébé, la question des interactions précoces entre le bébé et ses partenaires, et celle de la transmission psychique entre les générations.
+</t>
         </is>
       </c>
     </row>
@@ -580,10 +594,122 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Psychanalyse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la guerre, Serge Lebovici entreprend une analyse avec Sacha Nacht. Il devient membre de la Société psychanalytique de Paris et en devient directeur (1962-1967). Il préside l'Association psychanalytique internationale de 1973 à 1977. Avec René Diatkine et Évelyne Kestemberg, il met en place en France le « Psychodrame analytique individuel ».
+Lebovici s'intéresse particulièrement à la psychanalyse des enfants et contribue à introduire en France la pensée de Melanie Klein et de Donald Winnicott. Il évolue vers un intérêt pour les théorisations de John Bowlby.
+Au moment de la scission au sein de la Société psychanalytique de Paris, en 1953, qui conduit au départ des partisans de Jacques Lacan, il se confronte à celui-ci, dont il devient l'« ennemi personnel », et à Françoise Dolto.
+Il fut notamment l'analyste de Romain Gary.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Militantisme politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Lebovici adhère au parti communiste à la fin de la Seconde Guerre mondiale. En 1949, le Parti communiste français demande à ses membres psychiatres de condamner la psychanalyse, et Serge Lebovici, confronté aux pressions, cède dans un premier temps, ce qui lui vaut les critiques de la Société psychanalytique de Paris. Il quitte pourtant le PCF peu après, au début des années cinquante, lors du procès des « Blouses blanches », qui mettait en accusation les médecins juifs russes.
+En 1958, avec Philippe Paumelle et René Diatkine, il crée l'Association de santé mentale du 13e arrondissement de Paris (ASM13), devenue Centre Alfred Binet, introduisant une visée psychanalytique dans la formation d'équipes médico-sociales «de secteur».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'objet est investi avant que d'être perçu puis La mère est investie avant que d'être perçue et c'est ce qui la fait mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Lebovici</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Joyce McDougall et Serge Lebovici (trad. de l'anglais), Dialogue avec Sammy : contribution à l'étude de la psychose infantile, Paris, Payot, 1984, 268 p. (ISBN 2-228-22280-1)
 Serge Lebovici, Philippe Mazet, Penser apprendre - la cognition chez l'enfant les troubles de l'apprentissage la prise en charge colloque de Bobigny 4-5 juin 1987, éd. Eshel
